--- a/V2.1 exe/data.xlsx
+++ b/V2.1 exe/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\E-detail_tool\V2.1 exe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA68265-7F39-423E-A937-2189A084F8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB8601E-B055-459F-AC10-F75813F6A643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>11328_Spravato</t>
   </si>
   <si>
-    <t>Slide_1.jpg</t>
-  </si>
-  <si>
     <t>goToHomeButton(2),goToButton(3)</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>gotoSubParent(10)</t>
+  </si>
+  <si>
+    <t>Slide_1.jpg,Slide_4.jpg,Slide_4.jpg</t>
   </si>
 </sst>
 </file>
@@ -482,14 +482,14 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.6640625" bestFit="1" customWidth="1"/>
@@ -518,63 +518,63 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
